--- a/12-dars/Topshiriq_uchun_shablon.xlsx
+++ b/12-dars/Topshiriq_uchun_shablon.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
   <si>
     <t>dushanba</t>
   </si>
@@ -212,7 +212,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -276,12 +276,156 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -292,7 +436,7 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -301,35 +445,11 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -339,14 +459,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -357,11 +471,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -374,29 +483,72 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -429,7 +581,7 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>665333</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>179523</xdr:rowOff>
+      <xdr:rowOff>179522</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -741,526 +893,549 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21:G30"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="14.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="7.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="14.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="14" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="15">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="3">
         <v>10</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="3">
         <v>9</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="3">
         <v>7</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="3">
         <v>6</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="3">
         <v>5</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="16">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="15">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="4">
         <v>5</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="4">
         <v>3</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="4">
         <v>8</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="4">
         <v>10</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="4">
+        <v>4</v>
+      </c>
+      <c r="H3" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="15">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3">
+        <v>10</v>
+      </c>
+      <c r="E4" s="3">
+        <v>8</v>
+      </c>
+      <c r="F4" s="3">
+        <v>9</v>
+      </c>
+      <c r="G4" s="3">
+        <v>7</v>
+      </c>
+      <c r="H4" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="15">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4">
+        <v>3</v>
+      </c>
+      <c r="D5" s="4">
+        <v>4</v>
+      </c>
+      <c r="E5" s="4">
+        <v>6</v>
+      </c>
+      <c r="F5" s="4">
+        <v>8</v>
+      </c>
+      <c r="G5" s="4">
+        <v>10</v>
+      </c>
+      <c r="H5" s="17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="15">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3">
+        <v>3</v>
+      </c>
+      <c r="E6" s="3">
+        <v>4</v>
+      </c>
+      <c r="F6" s="3">
+        <v>6</v>
+      </c>
+      <c r="G6" s="3">
+        <v>7</v>
+      </c>
+      <c r="H6" s="16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="15">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="4">
+        <v>9</v>
+      </c>
+      <c r="D7" s="4">
+        <v>6</v>
+      </c>
+      <c r="E7" s="4">
+        <v>9</v>
+      </c>
+      <c r="F7" s="4">
+        <v>9</v>
+      </c>
+      <c r="G7" s="4">
+        <v>10</v>
+      </c>
+      <c r="H7" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="15">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="3">
+        <v>9</v>
+      </c>
+      <c r="D8" s="3">
+        <v>4</v>
+      </c>
+      <c r="E8" s="3">
+        <v>6</v>
+      </c>
+      <c r="F8" s="3">
+        <v>3</v>
+      </c>
+      <c r="G8" s="3">
+        <v>4</v>
+      </c>
+      <c r="H8" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="15">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="4">
+        <v>8</v>
+      </c>
+      <c r="D9" s="4">
+        <v>10</v>
+      </c>
+      <c r="E9" s="4">
+        <v>7</v>
+      </c>
+      <c r="F9" s="4">
+        <v>8</v>
+      </c>
+      <c r="G9" s="4">
+        <v>6</v>
+      </c>
+      <c r="H9" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="15">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="6">
+      <c r="C10" s="3">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3">
+        <v>7</v>
+      </c>
+      <c r="E10" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="F10" s="3">
+        <v>10</v>
+      </c>
+      <c r="G10" s="3">
+        <v>2</v>
+      </c>
+      <c r="H10" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="18">
+        <v>10</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="19">
+        <v>8</v>
+      </c>
+      <c r="D11" s="19">
+        <v>8</v>
+      </c>
+      <c r="E11" s="19">
         <v>9</v>
       </c>
-      <c r="C4" s="5">
-        <v>8</v>
-      </c>
-      <c r="D4" s="5">
-        <v>10</v>
-      </c>
-      <c r="E4" s="5">
-        <v>8</v>
-      </c>
-      <c r="F4" s="5">
+      <c r="F11" s="19">
+        <v>5</v>
+      </c>
+      <c r="G11" s="19">
+        <v>4</v>
+      </c>
+      <c r="H11" s="20">
         <v>9</v>
       </c>
-      <c r="G4" s="5">
-        <v>7</v>
-      </c>
-      <c r="H4" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="6">
-        <v>3</v>
-      </c>
-      <c r="D5" s="6">
-        <v>4</v>
-      </c>
-      <c r="E5" s="6">
-        <v>6</v>
-      </c>
-      <c r="F5" s="6">
-        <v>8</v>
-      </c>
-      <c r="G5" s="6">
-        <v>10</v>
-      </c>
-      <c r="H5" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="5">
-        <v>2</v>
-      </c>
-      <c r="D6" s="5">
-        <v>3</v>
-      </c>
-      <c r="E6" s="5">
-        <v>4</v>
-      </c>
-      <c r="F6" s="5">
-        <v>6</v>
-      </c>
-      <c r="G6" s="5">
-        <v>7</v>
-      </c>
-      <c r="H6" s="5">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="6">
-        <v>9</v>
-      </c>
-      <c r="D7" s="6">
-        <v>6</v>
-      </c>
-      <c r="E7" s="6">
-        <v>9</v>
-      </c>
-      <c r="F7" s="6">
-        <v>9</v>
-      </c>
-      <c r="G7" s="6">
-        <v>10</v>
-      </c>
-      <c r="H7" s="6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="5">
-        <v>9</v>
-      </c>
-      <c r="D8" s="5">
-        <v>4</v>
-      </c>
-      <c r="E8" s="5">
-        <v>6</v>
-      </c>
-      <c r="F8" s="5">
-        <v>3</v>
-      </c>
-      <c r="G8" s="5">
-        <v>4</v>
-      </c>
-      <c r="H8" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>8</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="6">
-        <v>8</v>
-      </c>
-      <c r="D9" s="6">
-        <v>10</v>
-      </c>
-      <c r="E9" s="6">
-        <v>7</v>
-      </c>
-      <c r="F9" s="6">
-        <v>8</v>
-      </c>
-      <c r="G9" s="6">
-        <v>6</v>
-      </c>
-      <c r="H9" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="5">
-        <v>7</v>
-      </c>
-      <c r="D10" s="5">
-        <v>7</v>
-      </c>
-      <c r="E10" s="5">
-        <v>3</v>
-      </c>
-      <c r="F10" s="5">
-        <v>10</v>
-      </c>
-      <c r="G10" s="5">
-        <v>2</v>
-      </c>
-      <c r="H10" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>10</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="6">
-        <v>8</v>
-      </c>
-      <c r="D11" s="6">
-        <v>8</v>
-      </c>
-      <c r="E11" s="6">
-        <v>9</v>
-      </c>
-      <c r="F11" s="6">
-        <v>5</v>
-      </c>
-      <c r="G11" s="6">
-        <v>4</v>
-      </c>
-      <c r="H11" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+    </row>
+    <row r="13" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="7">
+      <c r="B13" s="30"/>
+      <c r="C13" s="31">
         <f>COUNT(A2:A11)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="29"/>
+      <c r="C14" s="30">
+        <f>MAX(C2:H11)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="29"/>
+      <c r="C15" s="30">
+        <f>MIN(C2:H11)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8" t="s">
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="G20" s="8"/>
-      <c r="H20" s="9" t="s">
+      <c r="G20" s="21"/>
+      <c r="H20" s="22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="15">
         <v>1</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="6">
         <f>SUM(C2:H2)</f>
         <v>41</v>
       </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12">
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="7">
         <f>MAX(C21:E30)</f>
         <v>51</v>
       </c>
-      <c r="G21" s="13"/>
-      <c r="H21" s="14">
+      <c r="G21" s="8"/>
+      <c r="H21" s="23">
         <f>MIN(C21:E30)</f>
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="15">
         <v>2</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="2">
         <f>SUM(C3:H3)</f>
-        <v>44</v>
-      </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="17"/>
-    </row>
-    <row r="23" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
+        <v>33</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="24"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="15">
         <v>3</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="6">
         <f t="shared" ref="C23:C30" si="0">SUM(C4:H4)</f>
         <v>46</v>
       </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="17"/>
-    </row>
-    <row r="24" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="24"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="15">
         <v>4</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="2">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="17"/>
-    </row>
-    <row r="25" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="24"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="15">
         <v>5</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C25" s="6">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="17"/>
-    </row>
-    <row r="26" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="24"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="15">
         <v>6</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="2">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="17"/>
-    </row>
-    <row r="27" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="24"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="15">
         <v>7</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="11">
+      <c r="C27" s="6">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="17"/>
-    </row>
-    <row r="28" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="24"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="15">
         <v>8</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="2">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="17"/>
-    </row>
-    <row r="29" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="24"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="15">
         <v>9</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C29" s="6">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="17"/>
-    </row>
-    <row r="30" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="24"/>
+    </row>
+    <row r="30" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="18">
         <v>10</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="25">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="20"/>
-    </row>
-    <row r="33" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="21" t="s">
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="28"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
     <mergeCell ref="F21:G30"/>
     <mergeCell ref="H21:H30"/>
     <mergeCell ref="A37:D37"/>

--- a/12-dars/Topshiriq_uchun_shablon.xlsx
+++ b/12-dars/Topshiriq_uchun_shablon.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Loyihalar\Office-darsliklari\12-dars\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\OneDrive\Desktop\Office-darsliklari\12-dars\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -477,6 +477,46 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -489,66 +529,26 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -893,8 +893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -912,33 +912,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="15">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -959,12 +959,12 @@
       <c r="G2" s="3">
         <v>5</v>
       </c>
-      <c r="H2" s="16">
+      <c r="H2" s="11">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="15">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -985,12 +985,12 @@
       <c r="G3" s="4">
         <v>4</v>
       </c>
-      <c r="H3" s="17">
+      <c r="H3" s="12">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="15">
+      <c r="A4" s="10">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1011,12 +1011,12 @@
       <c r="G4" s="3">
         <v>7</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="11">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
+      <c r="A5" s="10">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -1037,12 +1037,12 @@
       <c r="G5" s="4">
         <v>10</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="12">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
+      <c r="A6" s="10">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -1063,12 +1063,12 @@
       <c r="G6" s="3">
         <v>7</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="11">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="15">
+      <c r="A7" s="10">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -1089,12 +1089,12 @@
       <c r="G7" s="4">
         <v>10</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="12">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="15">
+      <c r="A8" s="10">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -1115,12 +1115,12 @@
       <c r="G8" s="3">
         <v>4</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8" s="11">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="15">
+      <c r="A9" s="10">
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1141,12 +1141,12 @@
       <c r="G9" s="4">
         <v>6</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9" s="12">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="15">
+      <c r="A10" s="10">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -1167,89 +1167,89 @@
       <c r="G10" s="3">
         <v>2</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H10" s="11">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="18">
+      <c r="A11" s="13">
         <v>10</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="14">
         <v>8</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="14">
         <v>8</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="14">
         <v>9</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="14">
         <v>5</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G11" s="14">
         <v>4</v>
       </c>
-      <c r="H11" s="20">
+      <c r="H11" s="15">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="31">
+      <c r="B13" s="18"/>
+      <c r="C13" s="19">
         <f>COUNT(A2:A11)</f>
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="30">
+      <c r="B14" s="20"/>
+      <c r="C14" s="18">
         <f>MAX(C2:H11)</f>
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="29"/>
-      <c r="C15" s="30">
+      <c r="B15" s="20"/>
+      <c r="C15" s="18">
         <f>MIN(C2:H11)</f>
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21" t="s">
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="G20" s="21"/>
-      <c r="H20" s="22" t="s">
+      <c r="G20" s="31"/>
+      <c r="H20" s="16" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="15">
+      <c r="A21" s="10">
         <v>1</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -1261,69 +1261,69 @@
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
-      <c r="F21" s="7">
-        <f>MAX(C21:E30)</f>
+      <c r="F21" s="21">
+        <f>MAX(C21:C30)</f>
         <v>51</v>
       </c>
-      <c r="G21" s="8"/>
-      <c r="H21" s="23">
-        <f>MIN(C21:E30)</f>
+      <c r="G21" s="22"/>
+      <c r="H21" s="27">
+        <f>MIN(C21:C30)</f>
         <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="15">
+      <c r="A22" s="10">
         <v>2</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="2">
-        <f>SUM(C3:H3)</f>
+      <c r="C22" s="6">
+        <f t="shared" ref="C22:C30" si="0">SUM(C3:H3)</f>
         <v>33</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="24"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="28"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="15">
+      <c r="A23" s="10">
         <v>3</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C23" s="6">
-        <f t="shared" ref="C23:C30" si="0">SUM(C4:H4)</f>
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="24"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="28"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="15">
+      <c r="A24" s="10">
         <v>4</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="6">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="24"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="28"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="15">
+      <c r="A25" s="10">
         <v>5</v>
       </c>
       <c r="B25" s="5" t="s">
@@ -1335,29 +1335,29 @@
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="24"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="28"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="15">
+      <c r="A26" s="10">
         <v>6</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="6">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="24"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="28"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="15">
+      <c r="A27" s="10">
         <v>7</v>
       </c>
       <c r="B27" s="5" t="s">
@@ -1369,29 +1369,29 @@
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="24"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="28"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="15">
+      <c r="A28" s="10">
         <v>8</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="6">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="24"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="28"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="15">
+      <c r="A29" s="10">
         <v>9</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -1403,34 +1403,34 @@
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="24"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="28"/>
     </row>
     <row r="30" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="18">
+      <c r="A30" s="13">
         <v>10</v>
       </c>
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="25">
+      <c r="C30" s="6">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="28"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="29"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/12-dars/Topshiriq_uchun_shablon.xlsx
+++ b/12-dars/Topshiriq_uchun_shablon.xlsx
@@ -893,8 +893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1202,30 +1202,21 @@
         <v>18</v>
       </c>
       <c r="B13" s="18"/>
-      <c r="C13" s="19">
-        <f>COUNT(A2:A11)</f>
-        <v>10</v>
-      </c>
+      <c r="C13" s="19"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="20"/>
-      <c r="C14" s="18">
-        <f>MAX(C2:H11)</f>
-        <v>10</v>
-      </c>
+      <c r="C14" s="18"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="20"/>
-      <c r="C15" s="18">
-        <f>MIN(C2:H11)</f>
-        <v>2</v>
-      </c>
+      <c r="C15" s="18"/>
     </row>
     <row r="19" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1255,21 +1246,12 @@
       <c r="B21" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="6">
-        <f>SUM(C2:H2)</f>
-        <v>41</v>
-      </c>
+      <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
-      <c r="F21" s="21">
-        <f>MAX(C21:C30)</f>
-        <v>51</v>
-      </c>
+      <c r="F21" s="21"/>
       <c r="G21" s="22"/>
-      <c r="H21" s="27">
-        <f>MIN(C21:C30)</f>
-        <v>31</v>
-      </c>
+      <c r="H21" s="27"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
@@ -1278,10 +1260,7 @@
       <c r="B22" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="6">
-        <f t="shared" ref="C22:C30" si="0">SUM(C3:H3)</f>
-        <v>33</v>
-      </c>
+      <c r="C22" s="6"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="23"/>
@@ -1295,10 +1274,7 @@
       <c r="B23" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="6">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
+      <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="23"/>
@@ -1312,10 +1288,7 @@
       <c r="B24" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="6">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
+      <c r="C24" s="6"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="23"/>
@@ -1329,10 +1302,7 @@
       <c r="B25" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="6">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
+      <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="23"/>
@@ -1346,10 +1316,7 @@
       <c r="B26" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="6">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
+      <c r="C26" s="6"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="23"/>
@@ -1363,10 +1330,7 @@
       <c r="B27" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="6">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
+      <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="23"/>
@@ -1380,10 +1344,7 @@
       <c r="B28" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="6">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
+      <c r="C28" s="6"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="23"/>
@@ -1397,10 +1358,7 @@
       <c r="B29" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="6">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
+      <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="23"/>
@@ -1414,10 +1372,7 @@
       <c r="B30" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="6">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
+      <c r="C30" s="6"/>
       <c r="D30" s="17"/>
       <c r="E30" s="17"/>
       <c r="F30" s="25"/>

--- a/12-dars/Topshiriq_uchun_shablon.xlsx
+++ b/12-dars/Topshiriq_uchun_shablon.xlsx
@@ -579,7 +579,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>665333</xdr:colOff>
+      <xdr:colOff>398633</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>179522</xdr:rowOff>
     </xdr:to>
@@ -893,8 +893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:C15"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -902,9 +902,9 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="14.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.5703125" style="1" customWidth="1"/>
     <col min="9" max="9" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
@@ -1202,24 +1202,33 @@
         <v>18</v>
       </c>
       <c r="B13" s="18"/>
-      <c r="C13" s="19"/>
+      <c r="C13" s="19">
+        <f>COUNT(A2:A11)</f>
+        <v>10</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="20"/>
-      <c r="C14" s="18"/>
+      <c r="C14" s="18">
+        <f>MAX(C2:H11)</f>
+        <v>10</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="20"/>
-      <c r="C15" s="18"/>
+      <c r="C15" s="18">
+        <f>MIN(C2:H11)</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="19" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>6</v>
       </c>
@@ -1246,12 +1255,21 @@
       <c r="B21" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="6"/>
+      <c r="C21" s="6">
+        <f>SUM(C2:H2)</f>
+        <v>41</v>
+      </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
-      <c r="F21" s="21"/>
+      <c r="F21" s="21">
+        <f>MAX(C21:C30)</f>
+        <v>51</v>
+      </c>
       <c r="G21" s="22"/>
-      <c r="H21" s="27"/>
+      <c r="H21" s="27">
+        <f>MIN(C21:C30)</f>
+        <v>31</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
@@ -1260,7 +1278,10 @@
       <c r="B22" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="6"/>
+      <c r="C22" s="6">
+        <f t="shared" ref="C22:C30" si="0">SUM(C3:H3)</f>
+        <v>33</v>
+      </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="23"/>
@@ -1274,7 +1295,10 @@
       <c r="B23" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="6"/>
+      <c r="C23" s="6">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="23"/>
@@ -1288,7 +1312,10 @@
       <c r="B24" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="6"/>
+      <c r="C24" s="6">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="23"/>
@@ -1302,7 +1329,10 @@
       <c r="B25" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="6"/>
+      <c r="C25" s="6">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="23"/>
@@ -1316,7 +1346,10 @@
       <c r="B26" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="6"/>
+      <c r="C26" s="6">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="23"/>
@@ -1330,7 +1363,10 @@
       <c r="B27" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="6"/>
+      <c r="C27" s="6">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="23"/>
@@ -1344,7 +1380,10 @@
       <c r="B28" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="6"/>
+      <c r="C28" s="6">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="23"/>
@@ -1358,7 +1397,10 @@
       <c r="B29" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="6"/>
+      <c r="C29" s="6">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="23"/>
@@ -1372,7 +1414,10 @@
       <c r="B30" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="6"/>
+      <c r="C30" s="6">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
       <c r="D30" s="17"/>
       <c r="E30" s="17"/>
       <c r="F30" s="25"/>

--- a/12-dars/Topshiriq_uchun_shablon.xlsx
+++ b/12-dars/Topshiriq_uchun_shablon.xlsx
@@ -893,8 +893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -906,7 +906,7 @@
     <col min="5" max="5" width="12.140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" style="1" customWidth="1"/>
     <col min="9" max="9" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -1203,7 +1203,7 @@
       </c>
       <c r="B13" s="18"/>
       <c r="C13" s="19">
-        <f>COUNT(A2:A11)</f>
+        <f>COUNT(A2:A12)</f>
         <v>10</v>
       </c>
     </row>
@@ -1228,7 +1228,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>6</v>
       </c>

--- a/12-dars/Topshiriq_uchun_shablon.xlsx
+++ b/12-dars/Topshiriq_uchun_shablon.xlsx
@@ -573,15 +573,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>736775</xdr:colOff>
+      <xdr:colOff>669540</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>74576</xdr:rowOff>
+      <xdr:rowOff>141811</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>398633</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>179522</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>40045</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>45051</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -605,8 +605,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipH="1">
-          <a:off x="3653396" y="6407059"/>
-          <a:ext cx="1478834" cy="1484429"/>
+          <a:off x="3358952" y="7067046"/>
+          <a:ext cx="1477211" cy="1516887"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -894,24 +894,24 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="14.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" style="1" customWidth="1"/>
     <col min="9" max="9" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>6</v>
       </c>
@@ -937,7 +937,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -963,7 +963,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -989,7 +989,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -1041,7 +1041,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -1067,7 +1067,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -1093,7 +1093,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>7</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -1145,7 +1145,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>9</v>
       </c>
@@ -1171,7 +1171,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13">
         <v>10</v>
       </c>
@@ -1446,7 +1446,7 @@
     <hyperlink ref="A37" r:id="rId1" display="Online yuklab olish uchun bu yerga bopsing."/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/12-dars/Topshiriq_uchun_shablon.xlsx
+++ b/12-dars/Topshiriq_uchun_shablon.xlsx
@@ -566,66 +566,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>669540</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>141811</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>40045</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>45051</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Рисунок 3" descr="C:\Users\MBin Dev\AppData\Local\Packages\Microsoft.Windows.Photos_8wekyb3d8bbwe\TempState\ShareServiceTempFolder\qrcode_95162471_b87496dee57031c0ec00ab1bddb3acc7.jpeg"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm flipH="1">
-          <a:off x="3358952" y="7067046"/>
-          <a:ext cx="1477211" cy="1516887"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -893,8 +833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1447,6 +1387,5 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
 </worksheet>
 </file>